--- a/lab exel 5/La chaîne de montage.xlsx
+++ b/lab exel 5/La chaîne de montage.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwyy\OneDrive\Bureau\c13\lab exel 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F972B7F-A1AA-452C-AA89-70C5D207ADB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B6CB9-3E7D-48AF-83D8-AEA4A34045D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2A6FCD2-2446-4F71-A4ED-AE5CAE2E216E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A2A6FCD2-2446-4F71-A4ED-AE5CAE2E216E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DB" sheetId="1" r:id="rId1"/>
+    <sheet name="client" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +37,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>motherboard</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>video Cards</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>power supply</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>cpu couler</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>windows 10 home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">composante </t>
+  </si>
+  <si>
+    <t>i9 12900f</t>
+  </si>
+  <si>
+    <t>msi meg z690</t>
+  </si>
+  <si>
+    <t>t-force delta 32gb</t>
+  </si>
+  <si>
+    <t>msi geforce 3080 10gb</t>
+  </si>
+  <si>
+    <t>corsair icue 5000x (mid)</t>
+  </si>
+  <si>
+    <t>corssaire 850 w</t>
+  </si>
+  <si>
+    <t>samsung 980 pro</t>
+  </si>
+  <si>
+    <t>asus rog strix lc II 240</t>
+  </si>
+  <si>
+    <t>ryzen 9 7900x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gigabyte </t>
+  </si>
+  <si>
+    <t>prix</t>
+  </si>
+  <si>
+    <t>trident Z5 32gb</t>
+  </si>
+  <si>
+    <t>thougliquid 360 arg</t>
+  </si>
+  <si>
+    <t>i7</t>
+  </si>
+  <si>
+    <t>asus rog</t>
+  </si>
+  <si>
+    <t>32gb</t>
+  </si>
+  <si>
+    <t>3070 ti</t>
+  </si>
+  <si>
+    <t>corsair icue 4000x (mid)</t>
+  </si>
+  <si>
+    <t>corsair icue 6000x (mid)</t>
+  </si>
+  <si>
+    <t>fan kit rgb</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,8 +187,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,11 +505,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFAFD49-35FD-4801-BF9A-BD65F02892C0}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA9A84C-CF0C-4674-AB72-54AF06365294}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44167</v>
+      </c>
+      <c r="C2" t="str">
+        <f>DB!B3</f>
+        <v>i9 12900f</v>
+      </c>
+      <c r="D2" t="str">
+        <f>DB!B7</f>
+        <v>msi meg z690</v>
+      </c>
+      <c r="E2" t="str">
+        <f>DB!B11</f>
+        <v>t-force delta 32gb</v>
+      </c>
+      <c r="F2" t="str">
+        <f>DB!B15</f>
+        <v>msi geforce 3080 10gb</v>
+      </c>
+      <c r="G2" t="str">
+        <f>DB!B19</f>
+        <v>corsair icue 4000x (mid)</v>
+      </c>
+      <c r="H2" t="str">
+        <f>DB!B23</f>
+        <v>corssaire 850 w</v>
+      </c>
+      <c r="I2" t="str">
+        <f>DB!B27</f>
+        <v>samsung 980 pro</v>
+      </c>
+      <c r="J2" t="str">
+        <f>DB!B31</f>
+        <v>asus rog strix lc II 240</v>
+      </c>
+      <c r="K2" t="str">
+        <f>DB!B35</f>
+        <v>windows 10 home</v>
+      </c>
+      <c r="L2">
+        <f>SUM(VLOOKUP(C2,DB!B3:C35,2,FALSE),VLOOKUP(D2,DB!B3:C35,2,FALSE),VLOOKUP(E2,DB!B3:C35,2,FALSE),VLOOKUP(F2,DB!B3:C35,2,FALSE),VLOOKUP(G2,DB!B3:C35,2,FALSE),VLOOKUP(H2,DB!B3:C35,2,FALSE),VLOOKUP(I2,DB!B3:C35,2,FALSE),VLOOKUP(J2,DB!B3:C35,2,FALSE),VLOOKUP(K2,DB!B3:C35,2,FALSE))</f>
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>117712</v>
+      </c>
+      <c r="C3" t="str">
+        <f>DB!B4</f>
+        <v>ryzen 9 7900x</v>
+      </c>
+      <c r="D3" t="str">
+        <f>DB!B8</f>
+        <v xml:space="preserve">gigabyte </v>
+      </c>
+      <c r="E3" t="str">
+        <f>DB!B12</f>
+        <v>trident Z5 32gb</v>
+      </c>
+      <c r="F3" t="str">
+        <f>DB!B16</f>
+        <v>msi geforce 3080 10gb</v>
+      </c>
+      <c r="G3" t="str">
+        <f>DB!B20</f>
+        <v>corsair icue 6000x (mid)</v>
+      </c>
+      <c r="H3" t="str">
+        <f>DB!B24</f>
+        <v>corssaire 850 w</v>
+      </c>
+      <c r="I3" t="str">
+        <f>DB!B28</f>
+        <v>samsung 980 pro</v>
+      </c>
+      <c r="J3" t="str">
+        <f>DB!B32</f>
+        <v>thougliquid 360 arg</v>
+      </c>
+      <c r="K3" t="str">
+        <f>DB!B35</f>
+        <v>windows 10 home</v>
+      </c>
+      <c r="L3">
+        <f>SUM(VLOOKUP(C3,DB!B3:C35,2,FALSE),VLOOKUP(D3,DB!B3:C35,2,FALSE),VLOOKUP(E3,DB!B3:C35,2,FALSE),VLOOKUP(F3,DB!B3:C35,2,FALSE),VLOOKUP(G3,DB!B3:C35,2,FALSE),VLOOKUP(H3,DB!B3:C35,2,FALSE),VLOOKUP(I3,DB!B3:C35,2,FALSE),VLOOKUP(J3,DB!B3:C35,2,FALSE),VLOOKUP(K3,DB!B3:C35,2,FALSE))</f>
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41922</v>
+      </c>
+      <c r="C4" t="str">
+        <f>DB!B5</f>
+        <v>i7</v>
+      </c>
+      <c r="D4" t="str">
+        <f>DB!B9</f>
+        <v>asus rog</v>
+      </c>
+      <c r="E4" t="str">
+        <f>DB!B13</f>
+        <v>32gb</v>
+      </c>
+      <c r="F4" t="str">
+        <f>DB!B17</f>
+        <v>3070 ti</v>
+      </c>
+      <c r="G4" t="str">
+        <f>DB!B21</f>
+        <v>corsair icue 5000x (mid)</v>
+      </c>
+      <c r="H4" t="str">
+        <f>DB!B25</f>
+        <v>corssaire 850 w</v>
+      </c>
+      <c r="I4" t="str">
+        <f>DB!B29</f>
+        <v>samsung 980 pro</v>
+      </c>
+      <c r="J4" t="str">
+        <f>DB!B33</f>
+        <v>fan kit rgb</v>
+      </c>
+      <c r="K4" t="str">
+        <f>DB!B35</f>
+        <v>windows 10 home</v>
+      </c>
+      <c r="L4">
+        <f>SUM(VLOOKUP(C4,DB!B3:C35,2,FALSE),VLOOKUP(D4,DB!B3:C35,2,FALSE),VLOOKUP(E4,DB!B3:C35,2,FALSE),VLOOKUP(F4,DB!B3:C35,2,FALSE),VLOOKUP(G4,DB!B3:C35,2,FALSE),VLOOKUP(H4,DB!B3:C35,2,FALSE),VLOOKUP(I4,DB!B3:C35,2,FALSE),VLOOKUP(J4,DB!B3:C35,2,FALSE),VLOOKUP(K4,DB!B3:C35,2,FALSE))</f>
+        <v>3300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224E7CF5-B196-4371-8DDD-500CAB6163B5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
